--- a/applications/region_wpr/WPR_calib.xlsx
+++ b/applications/region_wpr/WPR_calib.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="232">
   <si>
     <t>meta_y_factor</t>
   </si>
@@ -238,6 +238,12 @@
     <t>t_cov_hb</t>
   </si>
   <si>
+    <t>pregs</t>
+  </si>
+  <si>
+    <t>preg_scr</t>
+  </si>
+  <si>
     <t>eag_ve</t>
   </si>
   <si>
@@ -466,6 +472,27 @@
     <t>i_sus</t>
   </si>
   <si>
+    <t>preg_scr_num</t>
+  </si>
+  <si>
+    <t>preg_scr_dbl</t>
+  </si>
+  <si>
+    <t>preg_scr_pdx</t>
+  </si>
+  <si>
+    <t>preg_diag_rate</t>
+  </si>
+  <si>
+    <t>net_hr_test</t>
+  </si>
+  <si>
+    <t>bd_adj</t>
+  </si>
+  <si>
+    <t>nonv_adj</t>
+  </si>
+  <si>
     <t>hbe_pos</t>
   </si>
   <si>
@@ -500,6 +527,9 @@
   </si>
   <si>
     <t>mtct_tc</t>
+  </si>
+  <si>
+    <t>mav_births</t>
   </si>
   <si>
     <t>hb3_vax</t>
@@ -1037,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,34 +1630,34 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.9500000000000001</v>
+        <v>1.418790113925934</v>
       </c>
       <c r="E15">
-        <v>1.228125</v>
+        <v>1.485756874084473</v>
       </c>
       <c r="F15">
+        <v>0.6914306640625001</v>
+      </c>
+      <c r="G15">
         <v>0.5</v>
       </c>
-      <c r="G15">
-        <v>1.11875</v>
-      </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.8133827304840088</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>1.0064111328125</v>
       </c>
       <c r="J15">
-        <v>0.8875</v>
+        <v>1.02125</v>
       </c>
       <c r="K15">
-        <v>0.825</v>
+        <v>0.9984228515625</v>
       </c>
       <c r="L15">
         <v>0.975</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1990,34 +2020,34 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>2.7</v>
+        <v>0.42525</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F25">
-        <v>1.47241875</v>
+        <v>1.66375</v>
       </c>
       <c r="G25">
-        <v>0.121</v>
+        <v>1.2925</v>
       </c>
       <c r="H25">
-        <v>0.1475</v>
+        <v>1.21</v>
       </c>
       <c r="I25">
-        <v>0.5145525000000001</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>1.123115625</v>
+        <v>1.40625</v>
       </c>
       <c r="K25">
-        <v>0.8910000000000001</v>
+        <v>0.42525</v>
       </c>
       <c r="L25">
-        <v>0.2193125000000001</v>
+        <v>3.375</v>
       </c>
       <c r="M25">
-        <v>0.3232031250000001</v>
+        <v>0.9677475000000002</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2029,34 +2059,34 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F26">
-        <v>0.6284891250000001</v>
+        <v>1.1</v>
       </c>
       <c r="G26">
-        <v>1.546875</v>
+        <v>1.21</v>
       </c>
       <c r="H26">
-        <v>0.898425</v>
+        <v>0.63525</v>
       </c>
       <c r="I26">
-        <v>1.30108275</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="J26">
-        <v>1.794375</v>
+        <v>1.375</v>
       </c>
       <c r="K26">
-        <v>0.6848693775</v>
+        <v>1.9265625</v>
       </c>
       <c r="L26">
-        <v>0.125</v>
+        <v>0.5775</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>0.9075</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2074,28 +2104,28 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.1794023437499999</v>
+        <v>1.089</v>
       </c>
       <c r="G27">
-        <v>0.3075468750000001</v>
+        <v>0.1</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>4.271241390625</v>
       </c>
       <c r="I27">
-        <v>2.645277099609375</v>
+        <v>1.21</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>1.890625</v>
+        <v>1.4641</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>2.45403125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2107,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.4775690390624998</v>
+        <v>0.4556250000000001</v>
       </c>
       <c r="E28">
-        <v>0.9857422175407412</v>
+        <v>0.6075</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2341,34 +2371,34 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1.917877634786968</v>
       </c>
       <c r="E34">
-        <v>0.9476250000000001</v>
+        <v>1.196627159797669</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>0.3215953125</v>
       </c>
       <c r="H34">
-        <v>0.2137499999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I34">
-        <v>0.03362890625000001</v>
+        <v>0.1</v>
       </c>
       <c r="J34">
-        <v>0.5</v>
+        <v>0.2860147705078124</v>
       </c>
       <c r="K34">
-        <v>0.1406249999999999</v>
+        <v>0.1556718749999999</v>
       </c>
       <c r="L34">
-        <v>0.7889059739685059</v>
+        <v>0.5891618431411744</v>
       </c>
       <c r="M34">
-        <v>0.5609844547119139</v>
+        <v>0.2537841796874998</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2809,34 +2839,34 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1.963225</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>0.6048001845703124</v>
+        <v>0.2870238164062501</v>
       </c>
       <c r="I46">
-        <v>1.03671875</v>
+        <v>0.22325625</v>
       </c>
       <c r="J46">
-        <v>1.89</v>
+        <v>1.276171875</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.563925</v>
       </c>
       <c r="L46">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M46">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2848,34 +2878,34 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>1.257795</v>
+        <v>1.1495</v>
       </c>
       <c r="I47">
-        <v>1.76537109375</v>
+        <v>1.34578125</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>2.2955625</v>
       </c>
       <c r="K47">
-        <v>1.8</v>
+        <v>2.377210429687501</v>
       </c>
       <c r="L47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="M47">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2965,34 +2995,34 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0.111875</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0.2384698535156251</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>0.1927340592956542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3016,22 +3046,22 @@
         <v>0.1</v>
       </c>
       <c r="H51">
+        <v>0.2847656250000001</v>
+      </c>
+      <c r="I51">
         <v>0.1</v>
       </c>
-      <c r="I51">
-        <v>0.039671875</v>
-      </c>
       <c r="J51">
-        <v>0.445635421875</v>
+        <v>0.216421875</v>
       </c>
       <c r="K51">
-        <v>0.1427783203124999</v>
+        <v>0.3867187499999999</v>
       </c>
       <c r="L51">
-        <v>0.7332373124999999</v>
+        <v>0.9</v>
       </c>
       <c r="M51">
-        <v>0.3992075903320312</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3049,28 +3079,28 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>0.075</v>
+        <v>0.2875605468749999</v>
       </c>
       <c r="G52">
-        <v>0.02847265625</v>
+        <v>0.1</v>
       </c>
       <c r="H52">
-        <v>0.186079319000244</v>
+        <v>0.25156062940979</v>
       </c>
       <c r="I52">
-        <v>0.08344081177660077</v>
+        <v>0.12209326171875</v>
       </c>
       <c r="J52">
-        <v>0.4553881016002623</v>
+        <v>0.5315624999999999</v>
       </c>
       <c r="K52">
-        <v>0.1555769472499564</v>
+        <v>0.2404687500000001</v>
       </c>
       <c r="L52">
-        <v>0.3329544076309202</v>
+        <v>0.61875</v>
       </c>
       <c r="M52">
-        <v>0.1476318912432073</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3082,34 +3112,34 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0.3087616495605469</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0.10121875</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0.2421696601455687</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0.1114513330078125</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3127,28 +3157,28 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0.105</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0.15159375</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0.1157625</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0.1943733032226563</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -6286,28 +6316,28 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>0.8098202710380061</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>0.467058031116645</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>1.763905690620058</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0.8160804945146792</v>
+        <v>1</v>
       </c>
       <c r="J135">
-        <v>1.88436620577641</v>
+        <v>1</v>
       </c>
       <c r="K135">
-        <v>1.026885892509155</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>3.940081850615934</v>
+        <v>1</v>
       </c>
       <c r="M135">
-        <v>1.997246579515691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -9083,23 +9113,46 @@
       <c r="A207" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B207" s="1"/>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B208" s="1"/>
       <c r="C208">
         <v>1</v>
       </c>
@@ -9107,16 +9160,38 @@
         <v>1</v>
       </c>
       <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B209" s="1"/>
       <c r="C209">
         <v>1</v>
       </c>
@@ -9124,16 +9199,38 @@
         <v>1</v>
       </c>
       <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B210" s="1"/>
       <c r="C210">
         <v>1</v>
       </c>
@@ -9141,16 +9238,38 @@
         <v>1</v>
       </c>
       <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B211" s="1"/>
       <c r="C211">
         <v>1</v>
       </c>
@@ -9158,16 +9277,38 @@
         <v>1</v>
       </c>
       <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B212" s="1"/>
       <c r="C212">
         <v>1</v>
       </c>
@@ -9175,16 +9316,38 @@
         <v>1</v>
       </c>
       <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B213" s="1"/>
       <c r="C213">
         <v>1</v>
       </c>
@@ -9192,16 +9355,38 @@
         <v>1</v>
       </c>
       <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B214" s="1"/>
       <c r="C214">
         <v>1</v>
       </c>
@@ -9209,16 +9394,38 @@
         <v>1</v>
       </c>
       <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B215" s="1"/>
       <c r="C215">
         <v>1</v>
       </c>
@@ -9226,16 +9433,38 @@
         <v>1</v>
       </c>
       <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B216" s="1"/>
       <c r="C216">
         <v>1</v>
       </c>
@@ -9243,32 +9472,53 @@
         <v>1</v>
       </c>
       <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
-      </c>
-      <c r="E217">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -9282,7 +9532,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>1</v>
@@ -9291,320 +9541,182 @@
         <v>1</v>
       </c>
       <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>1</v>
-      </c>
-      <c r="H220">
-        <v>1</v>
-      </c>
-      <c r="I220">
-        <v>1</v>
-      </c>
-      <c r="J220">
-        <v>1</v>
-      </c>
-      <c r="K220">
-        <v>1</v>
-      </c>
-      <c r="L220">
-        <v>1</v>
-      </c>
-      <c r="M220">
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-      <c r="H221">
-        <v>1</v>
-      </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
-      <c r="J221">
-        <v>1</v>
-      </c>
-      <c r="K221">
-        <v>1</v>
-      </c>
-      <c r="L221">
-        <v>1</v>
-      </c>
-      <c r="M221">
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
-      <c r="F222">
-        <v>1</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-      <c r="H222">
-        <v>1</v>
-      </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-      <c r="J222">
-        <v>1</v>
-      </c>
-      <c r="K222">
-        <v>1</v>
-      </c>
-      <c r="L222">
-        <v>1</v>
-      </c>
-      <c r="M222">
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
-      <c r="F223">
-        <v>1</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-      <c r="H223">
-        <v>1</v>
-      </c>
-      <c r="I223">
-        <v>1</v>
-      </c>
-      <c r="J223">
-        <v>1</v>
-      </c>
-      <c r="K223">
-        <v>1</v>
-      </c>
-      <c r="L223">
-        <v>1</v>
-      </c>
-      <c r="M223">
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
-      <c r="F224">
-        <v>1</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-      <c r="H224">
-        <v>1</v>
-      </c>
-      <c r="I224">
-        <v>1</v>
-      </c>
-      <c r="J224">
-        <v>1</v>
-      </c>
-      <c r="K224">
-        <v>1</v>
-      </c>
-      <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224">
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
-      <c r="F225">
-        <v>1</v>
-      </c>
-      <c r="G225">
-        <v>1</v>
-      </c>
-      <c r="H225">
-        <v>1</v>
-      </c>
-      <c r="I225">
-        <v>1</v>
-      </c>
-      <c r="J225">
-        <v>1</v>
-      </c>
-      <c r="K225">
-        <v>1</v>
-      </c>
-      <c r="L225">
-        <v>1</v>
-      </c>
-      <c r="M225">
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
-      <c r="F226">
-        <v>1</v>
-      </c>
-      <c r="G226">
-        <v>1</v>
-      </c>
-      <c r="H226">
-        <v>1</v>
-      </c>
-      <c r="I226">
-        <v>1</v>
-      </c>
-      <c r="J226">
-        <v>1</v>
-      </c>
-      <c r="K226">
-        <v>1</v>
-      </c>
-      <c r="L226">
-        <v>1</v>
-      </c>
-      <c r="M226">
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
-      <c r="F227">
-        <v>1</v>
-      </c>
-      <c r="G227">
-        <v>1</v>
-      </c>
-      <c r="H227">
-        <v>1</v>
-      </c>
-      <c r="I227">
-        <v>1</v>
-      </c>
-      <c r="J227">
-        <v>1</v>
-      </c>
-      <c r="K227">
-        <v>1</v>
-      </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227">
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
-      <c r="F228">
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
-      <c r="G229">
+      <c r="D229">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>3</v>
@@ -9612,13 +9724,34 @@
       <c r="C230">
         <v>1</v>
       </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
       <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>4</v>
@@ -9626,13 +9759,34 @@
       <c r="C231">
         <v>1</v>
       </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
       <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>5</v>
@@ -9640,13 +9794,34 @@
       <c r="C232">
         <v>1</v>
       </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
       <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>6</v>
@@ -9654,13 +9829,34 @@
       <c r="C233">
         <v>1</v>
       </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
       <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>7</v>
@@ -9668,13 +9864,34 @@
       <c r="C234">
         <v>1</v>
       </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
       <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>8</v>
@@ -9682,7 +9899,210 @@
       <c r="C235">
         <v>1</v>
       </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
       <c r="M235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
+      <c r="A241" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
+      <c r="A245" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="M245">
         <v>1</v>
       </c>
     </row>
